--- a/biology/Écologie/Dissémination_des_graines/Dissémination_des_graines.xlsx
+++ b/biology/Écologie/Dissémination_des_graines/Dissémination_des_graines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diss%C3%A9mination_des_graines</t>
+          <t>Dissémination_des_graines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes se propagent dans leur environnement le plus souvent grâce à la dissémination de leurs graines, appelée aussi dispersion des graines ou chorie. Les plantes n'étant pas des êtres vivants mobiles, plusieurs stratégies existent dans la nature pour amener de nouvelles plantes à croître loin de la plante mère.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diss%C3%A9mination_des_graines</t>
+          <t>Dissémination_des_graines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diss%C3%A9mination_des_graines</t>
+          <t>Dissémination_des_graines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Avantages évolutifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette dispersion spatiale a été favorisée par la sélection naturelle, car elle permet :
 d'atteindre des habitats propices et favorables au développement des futures pousses,
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diss%C3%A9mination_des_graines</t>
+          <t>Dissémination_des_graines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Agents de la dissémination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les modes de dissémination des graines utilisent les agents-disperseurs suivants : 
 la plante elle-même : autochorie
@@ -582,30 +600,234 @@
 le vent : anémochorie
 l'eau : hydrochorie
 les animaux : zoochorie (mammifères, oiseaux, insectes, etc.) dont les fourmis : myrmécochorie
-les hommes : anthropochorie (ou la culture : hémérochorie)
-Par la plante elle-même : autochorie
-Dispersion par des mouvements brusques des plantes :
+les hommes : anthropochorie (ou la culture : hémérochorie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Par la plante elle-même : autochorie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dispersion par des mouvements brusques des plantes :
 par turgescence du fruit à maturité et projection des graines dans une pulpe liquide lorsque le pédoncule floral se détache ;
-par éclatement des fruits mûrs, les valves s'enroulant brusquement sur elles-mêmes ; on parle alors plus spécifiquement de ballochorie ou bolochorie.
-Par le vent : anémochorie
-par la légèreté des semences ;
+par éclatement des fruits mûrs, les valves s'enroulant brusquement sur elles-mêmes ; on parle alors plus spécifiquement de ballochorie ou bolochorie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Par le vent : anémochorie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>par la légèreté des semences ;
 grâce à la présence de poils (exemple : pappus des pissenlits) ;
-par la présence d'ailes membraneuses (exemples: bractées du tilleul, samares de l'orme, disamare des érables).
-Par la gravité : barochorie
-par gravité au pied et à proximité de la plante mère des semences les plus lourdes ;
+par la présence d'ailes membraneuses (exemples: bractées du tilleul, samares de l'orme, disamare des érables).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Par la gravité : barochorie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>par gravité au pied et à proximité de la plante mère des semences les plus lourdes ;
 mécanisme essentiel lorsque la zoochorie est moins efficace ;
-phénomène d'« alluvionnement » dans les secteurs pentus (accumulation en bas de la pente)[1].
-Par l'eau : hydrochorie
-eaux de ruissellement + ombrochorie (gouttes de pluie qui en tombant sur les plantes, dispersent les graines par effet splash) ;
+phénomène d'« alluvionnement » dans les secteurs pentus (accumulation en bas de la pente).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Par l'eau : hydrochorie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>eaux de ruissellement + ombrochorie (gouttes de pluie qui en tombant sur les plantes, dispersent les graines par effet splash) ;
 plantes aquatiques, cas du nénuphar ;
-nautochorie : flottaison sur un milieu aquatique, principalement les courants marins (cas du cocotier et du chou marin) mais aussi le long des rivières ou des berges des lacs, en campagne ou en montagne.
-Par les animaux : zoochorie
-l'endozoochorie : après ingestion ;
+nautochorie : flottaison sur un milieu aquatique, principalement les courants marins (cas du cocotier et du chou marin) mais aussi le long des rivières ou des berges des lacs, en campagne ou en montagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Par les animaux : zoochorie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>l'endozoochorie : après ingestion ;
 l'exozoochorie : transport par le pelage d'un mammifère, grâce à la présence de crochets ou d'aiguillons sur le fruit de la bardane ; cela a inspiré l'inventeur du velcro ;
 par les fourmis (plantes myrmécophiles), c'est la myrmécochorie ;
-par la mise en réserve par des écureuils, rongeurs, ou autres animaux (bec croisé) à mémoire courte (châtaigne, noisette).
-Par les hommes : anthropochorie, hémérochorie ou polémochorie
-transport par les hommes eux-mêmes : anthropochorie ;
+par la mise en réserve par des écureuils, rongeurs, ou autres animaux (bec croisé) à mémoire courte (châtaigne, noisette).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dissémination_des_graines</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diss%C3%A9mination_des_graines</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agents de la dissémination</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Par les hommes : anthropochorie, hémérochorie ou polémochorie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>transport par les hommes eux-mêmes : anthropochorie ;
 transport par les activités humaines (comme avec les animaux domestiques ou lors de retours de voyages) : hémérochorie ;
 transport lors de guerres : polémochorie. Par exemple Glyceria striata a été apportée pendant la Première Guerre mondiale dans les fourrages des troupes équestres américaines.</t>
         </is>
